--- a/REGULAR/1-RETIRED/ANCIRO, DANILO.xlsx
+++ b/REGULAR/1-RETIRED/ANCIRO, DANILO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\1-RETIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A941D6C-01D3-41E9-86BC-1E16EEE65039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E5A8A-4FDC-4DBF-9409-689ACD1D507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -663,6 +663,39 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,39 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2585,7 +2585,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="[0]!Clearcells" textlink="">
+    <xdr:sp macro="[0]!Clearcell" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
@@ -3099,8 +3099,8 @@
   </sheetPr>
   <dimension ref="A2:M306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A82" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4440" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="I8" sqref="I8"/>
       <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
     </sheetView>
@@ -3124,62 +3124,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3205,18 +3205,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9087,7 +9087,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
-        <f t="shared" ref="A284:A293" si="4">EDATE(A283,1)</f>
+        <f t="shared" ref="A284:A292" si="4">EDATE(A283,1)</f>
         <v>44621</v>
       </c>
       <c r="B284" s="20"/>
@@ -9299,13 +9299,13 @@
       <c r="K293" s="20"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="60"/>
-      <c r="B294" s="61" t="s">
+      <c r="A294" s="48"/>
+      <c r="B294" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C294" s="62"/>
-      <c r="D294" s="63"/>
-      <c r="E294" s="64"/>
+      <c r="C294" s="50"/>
+      <c r="D294" s="51"/>
+      <c r="E294" s="52"/>
       <c r="F294" s="20"/>
       <c r="G294" s="13"/>
       <c r="H294" s="39"/>
@@ -9317,13 +9317,13 @@
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
-      <c r="D295" s="65" t="s">
+      <c r="D295" s="53" t="s">
         <v>77</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
       <c r="G295" s="9"/>
-      <c r="H295" s="65" t="s">
+      <c r="H295" s="53" t="s">
         <v>78</v>
       </c>
       <c r="I295" s="9"/>
@@ -9339,13 +9339,13 @@
       <c r="D296" s="39"/>
       <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="62" t="s">
+      <c r="G296" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H296" s="63"/>
-      <c r="I296" s="64"/>
-      <c r="J296" s="66"/>
-      <c r="K296" s="67"/>
+      <c r="H296" s="51"/>
+      <c r="I296" s="52"/>
+      <c r="J296" s="54"/>
+      <c r="K296" s="55"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
@@ -9364,7 +9364,7 @@
       <c r="A298" s="40"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
-      <c r="D298" s="70"/>
+      <c r="D298" s="58"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
       <c r="G298" s="13"/>
@@ -9465,15 +9465,15 @@
       <c r="K305" s="20"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" s="68"/>
+      <c r="A306" s="56"/>
       <c r="B306" s="15"/>
       <c r="C306" s="41"/>
       <c r="D306" s="42"/>
-      <c r="E306" s="69"/>
+      <c r="E306" s="57"/>
       <c r="F306" s="15"/>
       <c r="G306" s="41"/>
       <c r="H306" s="42"/>
-      <c r="I306" s="69"/>
+      <c r="I306" s="57"/>
       <c r="J306" s="12"/>
       <c r="K306" s="15"/>
     </row>
@@ -9522,8 +9522,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9541,17 +9541,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -9592,23 +9592,21 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>29</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>28</v>
-      </c>
-      <c r="L3" s="44">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="44" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>8.2999999999999741E-2</v>
+        <v>---</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -9628,12 +9626,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/1-RETIRED/ANCIRO, DANILO.xlsx
+++ b/REGULAR/1-RETIRED/ANCIRO, DANILO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\1-RETIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E5A8A-4FDC-4DBF-9409-689ACD1D507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E803A7-7901-4B3E-B879-C1D5C07F13C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,18 +25,10 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -273,13 +265,13 @@
     <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
   </si>
   <si>
-    <t>OPTIONAL RETIREMENT EFFECTIVE DATE: DECEMBER 12, 2022</t>
-  </si>
-  <si>
     <t>TOTAL VL = 220.625</t>
   </si>
   <si>
     <t>TOTAL SL = 223.625</t>
+  </si>
+  <si>
+    <t>OPTIONAL RETIREMENT EFFECTIVE DATE: DECEMBER 13, 2022</t>
   </si>
 </sst>
 </file>
@@ -2702,7 +2694,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3099,10 +3091,10 @@
   </sheetPr>
   <dimension ref="A2:M306"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4440" topLeftCell="A82" activePane="bottomLeft"/>
-      <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4440" topLeftCell="A290" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="H296" sqref="H296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3342,8 +3334,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <f>EDATE(A12,1)</f>
-        <v>37012</v>
+        <f>EOMONTH(A12,1)</f>
+        <v>37042</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -3363,8 +3355,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <f t="shared" ref="A14:A82" si="0">EDATE(A13,1)</f>
-        <v>37043</v>
+        <f>EOMONTH(A13,1)</f>
+        <v>37072</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -3384,8 +3376,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <f t="shared" si="0"/>
-        <v>37073</v>
+        <f>EOMONTH(A14,1)</f>
+        <v>37103</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
@@ -3405,8 +3397,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <f t="shared" si="0"/>
-        <v>37104</v>
+        <f>EOMONTH(A15,1)</f>
+        <v>37134</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="13">
@@ -3426,8 +3418,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <f t="shared" si="0"/>
-        <v>37135</v>
+        <f>EOMONTH(A16,1)</f>
+        <v>37164</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
@@ -3447,8 +3439,8 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <f t="shared" si="0"/>
-        <v>37165</v>
+        <f>EOMONTH(A17,1)</f>
+        <v>37195</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3468,8 +3460,8 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <f t="shared" si="0"/>
-        <v>37196</v>
+        <f>EOMONTH(A18,1)</f>
+        <v>37225</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3489,8 +3481,8 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <f t="shared" si="0"/>
-        <v>37226</v>
+        <f>EOMONTH(A19,1)</f>
+        <v>37256</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -3528,8 +3520,8 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <f>EDATE(A20,1)</f>
-        <v>37257</v>
+        <f>EOMONTH(A20,1)</f>
+        <v>37287</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>68</v>
@@ -3553,8 +3545,8 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <f t="shared" si="0"/>
-        <v>37288</v>
+        <f>EOMONTH(A22,1)</f>
+        <v>37315</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -3574,8 +3566,8 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <f t="shared" si="0"/>
-        <v>37316</v>
+        <f>EOMONTH(A23,1)</f>
+        <v>37346</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3595,8 +3587,8 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <f t="shared" si="0"/>
-        <v>37347</v>
+        <f>EOMONTH(A24,1)</f>
+        <v>37376</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3616,8 +3608,8 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <f t="shared" si="0"/>
-        <v>37377</v>
+        <f>EOMONTH(A25,1)</f>
+        <v>37407</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>69</v>
@@ -3641,8 +3633,8 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <f t="shared" si="0"/>
-        <v>37408</v>
+        <f>EOMONTH(A26,1)</f>
+        <v>37437</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3662,8 +3654,8 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <f t="shared" si="0"/>
-        <v>37438</v>
+        <f>EOMONTH(A27,1)</f>
+        <v>37468</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>69</v>
@@ -3687,8 +3679,8 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <f t="shared" si="0"/>
-        <v>37469</v>
+        <f>EOMONTH(A28,1)</f>
+        <v>37499</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -3708,8 +3700,8 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <f t="shared" si="0"/>
-        <v>37500</v>
+        <f>EOMONTH(A29,1)</f>
+        <v>37529</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3729,8 +3721,8 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <f t="shared" si="0"/>
-        <v>37530</v>
+        <f>EOMONTH(A30,1)</f>
+        <v>37560</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>69</v>
@@ -3754,8 +3746,8 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <f t="shared" si="0"/>
-        <v>37561</v>
+        <f>EOMONTH(A31,1)</f>
+        <v>37590</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -3775,8 +3767,8 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <f t="shared" si="0"/>
-        <v>37591</v>
+        <f>EOMONTH(A32,1)</f>
+        <v>37621</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>67</v>
@@ -3818,8 +3810,8 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <f>EDATE(A33,1)</f>
-        <v>37622</v>
+        <f>EOMONTH(A33,1)</f>
+        <v>37652</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -3839,8 +3831,8 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <f t="shared" si="0"/>
-        <v>37653</v>
+        <f>EOMONTH(A35,1)</f>
+        <v>37680</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -3860,8 +3852,8 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <f t="shared" si="0"/>
-        <v>37681</v>
+        <f>EOMONTH(A36,1)</f>
+        <v>37711</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -3881,8 +3873,8 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <f t="shared" si="0"/>
-        <v>37712</v>
+        <f>EOMONTH(A37,1)</f>
+        <v>37741</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -3902,8 +3894,8 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <f t="shared" si="0"/>
-        <v>37742</v>
+        <f>EOMONTH(A38,1)</f>
+        <v>37772</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -3923,8 +3915,8 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <f t="shared" si="0"/>
-        <v>37773</v>
+        <f>EOMONTH(A39,1)</f>
+        <v>37802</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -3944,8 +3936,8 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <f t="shared" si="0"/>
-        <v>37803</v>
+        <f>EOMONTH(A40,1)</f>
+        <v>37833</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -3965,8 +3957,8 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <f t="shared" si="0"/>
-        <v>37834</v>
+        <f>EOMONTH(A41,1)</f>
+        <v>37864</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -3986,8 +3978,8 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <f t="shared" si="0"/>
-        <v>37865</v>
+        <f>EOMONTH(A42,1)</f>
+        <v>37894</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4007,8 +3999,8 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <f t="shared" si="0"/>
-        <v>37895</v>
+        <f>EOMONTH(A43,1)</f>
+        <v>37925</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4028,8 +4020,8 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <f t="shared" si="0"/>
-        <v>37926</v>
+        <f>EOMONTH(A44,1)</f>
+        <v>37955</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -4049,8 +4041,8 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <f t="shared" si="0"/>
-        <v>37956</v>
+        <f>EOMONTH(A45,1)</f>
+        <v>37986</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>67</v>
@@ -4092,8 +4084,8 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <f>EDATE(A46,1)</f>
-        <v>37987</v>
+        <f>EOMONTH(A46,1)</f>
+        <v>38017</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4113,8 +4105,8 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <f t="shared" si="0"/>
-        <v>38018</v>
+        <f>EOMONTH(A48,1)</f>
+        <v>38046</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13">
@@ -4134,8 +4126,8 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <f t="shared" si="0"/>
-        <v>38047</v>
+        <f>EOMONTH(A49,1)</f>
+        <v>38077</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -4155,8 +4147,8 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <f t="shared" si="0"/>
-        <v>38078</v>
+        <f>EOMONTH(A50,1)</f>
+        <v>38107</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -4176,8 +4168,8 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <f t="shared" si="0"/>
-        <v>38108</v>
+        <f>EOMONTH(A51,1)</f>
+        <v>38138</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -4197,8 +4189,8 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <f t="shared" si="0"/>
-        <v>38139</v>
+        <f>EOMONTH(A52,1)</f>
+        <v>38168</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4218,8 +4210,8 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <f t="shared" si="0"/>
-        <v>38169</v>
+        <f>EOMONTH(A53,1)</f>
+        <v>38199</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4239,8 +4231,8 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <f t="shared" si="0"/>
-        <v>38200</v>
+        <f>EOMONTH(A54,1)</f>
+        <v>38230</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4260,8 +4252,8 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <f t="shared" si="0"/>
-        <v>38231</v>
+        <f>EOMONTH(A55,1)</f>
+        <v>38260</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4281,8 +4273,8 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <f t="shared" si="0"/>
-        <v>38261</v>
+        <f>EOMONTH(A56,1)</f>
+        <v>38291</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4302,8 +4294,8 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <f t="shared" si="0"/>
-        <v>38292</v>
+        <f>EOMONTH(A57,1)</f>
+        <v>38321</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4323,8 +4315,8 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <f t="shared" si="0"/>
-        <v>38322</v>
+        <f>EOMONTH(A58,1)</f>
+        <v>38352</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>67</v>
@@ -4366,8 +4358,8 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <f>EDATE(A59,1)</f>
-        <v>38353</v>
+        <f>EOMONTH(A59,1)</f>
+        <v>38383</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4387,8 +4379,8 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <f t="shared" si="0"/>
-        <v>38384</v>
+        <f>EOMONTH(A61,1)</f>
+        <v>38411</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4408,8 +4400,8 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <f t="shared" si="0"/>
-        <v>38412</v>
+        <f>EOMONTH(A62,1)</f>
+        <v>38442</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4429,8 +4421,8 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <f t="shared" si="0"/>
-        <v>38443</v>
+        <f>EOMONTH(A63,1)</f>
+        <v>38472</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4450,8 +4442,8 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <f t="shared" si="0"/>
-        <v>38473</v>
+        <f>EOMONTH(A64,1)</f>
+        <v>38503</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4471,8 +4463,8 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <f t="shared" si="0"/>
-        <v>38504</v>
+        <f>EOMONTH(A65,1)</f>
+        <v>38533</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4492,8 +4484,8 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <f t="shared" si="0"/>
-        <v>38534</v>
+        <f>EOMONTH(A66,1)</f>
+        <v>38564</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4513,8 +4505,8 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <f t="shared" si="0"/>
-        <v>38565</v>
+        <f>EOMONTH(A67,1)</f>
+        <v>38595</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4534,8 +4526,8 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <f t="shared" si="0"/>
-        <v>38596</v>
+        <f>EOMONTH(A68,1)</f>
+        <v>38625</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4555,8 +4547,8 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <f t="shared" si="0"/>
-        <v>38626</v>
+        <f>EOMONTH(A69,1)</f>
+        <v>38656</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4576,8 +4568,8 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <f t="shared" si="0"/>
-        <v>38657</v>
+        <f>EOMONTH(A70,1)</f>
+        <v>38686</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4597,8 +4589,8 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <f t="shared" si="0"/>
-        <v>38687</v>
+        <f>EOMONTH(A71,1)</f>
+        <v>38717</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>67</v>
@@ -4640,8 +4632,8 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <f>EDATE(A72,1)</f>
-        <v>38718</v>
+        <f>EOMONTH(A72,1)</f>
+        <v>38748</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4661,8 +4653,8 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <f t="shared" si="0"/>
-        <v>38749</v>
+        <f>EOMONTH(A74,1)</f>
+        <v>38776</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13">
@@ -4682,8 +4674,8 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <f t="shared" si="0"/>
-        <v>38777</v>
+        <f>EOMONTH(A75,1)</f>
+        <v>38807</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4703,8 +4695,8 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <f t="shared" si="0"/>
-        <v>38808</v>
+        <f>EOMONTH(A76,1)</f>
+        <v>38837</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>70</v>
@@ -4728,8 +4720,8 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <f t="shared" si="0"/>
-        <v>38838</v>
+        <f>EOMONTH(A77,1)</f>
+        <v>38868</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4749,8 +4741,8 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <f t="shared" si="0"/>
-        <v>38869</v>
+        <f>EOMONTH(A78,1)</f>
+        <v>38898</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4770,8 +4762,8 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <f t="shared" si="0"/>
-        <v>38899</v>
+        <f>EOMONTH(A79,1)</f>
+        <v>38929</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4791,8 +4783,8 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <f t="shared" si="0"/>
-        <v>38930</v>
+        <f>EOMONTH(A80,1)</f>
+        <v>38960</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4812,8 +4804,8 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <f t="shared" si="0"/>
-        <v>38961</v>
+        <f>EOMONTH(A81,1)</f>
+        <v>38990</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4833,8 +4825,8 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <f t="shared" ref="A83:A150" si="1">EDATE(A82,1)</f>
-        <v>38991</v>
+        <f>EOMONTH(A82,1)</f>
+        <v>39021</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4854,8 +4846,8 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <f t="shared" si="1"/>
-        <v>39022</v>
+        <f>EOMONTH(A83,1)</f>
+        <v>39051</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4875,8 +4867,8 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <f t="shared" si="1"/>
-        <v>39052</v>
+        <f>EOMONTH(A84,1)</f>
+        <v>39082</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>67</v>
@@ -4918,8 +4910,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <f>EDATE(A85,1)</f>
-        <v>39083</v>
+        <f>EOMONTH(A85,1)</f>
+        <v>39113</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -4939,8 +4931,8 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <f t="shared" si="1"/>
-        <v>39114</v>
+        <f>EOMONTH(A87,1)</f>
+        <v>39141</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -4960,8 +4952,8 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <f t="shared" si="1"/>
-        <v>39142</v>
+        <f>EOMONTH(A88,1)</f>
+        <v>39172</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -4981,8 +4973,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <f t="shared" si="1"/>
-        <v>39173</v>
+        <f>EOMONTH(A89,1)</f>
+        <v>39202</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
@@ -5002,8 +4994,8 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <f t="shared" si="1"/>
-        <v>39203</v>
+        <f>EOMONTH(A90,1)</f>
+        <v>39233</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5023,8 +5015,8 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <f t="shared" si="1"/>
-        <v>39234</v>
+        <f>EOMONTH(A91,1)</f>
+        <v>39263</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
@@ -5044,8 +5036,8 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <f t="shared" si="1"/>
-        <v>39264</v>
+        <f>EOMONTH(A92,1)</f>
+        <v>39294</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13">
@@ -5065,8 +5057,8 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <f t="shared" si="1"/>
-        <v>39295</v>
+        <f>EOMONTH(A93,1)</f>
+        <v>39325</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5086,8 +5078,8 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <f t="shared" si="1"/>
-        <v>39326</v>
+        <f>EOMONTH(A94,1)</f>
+        <v>39355</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5107,8 +5099,8 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <f t="shared" si="1"/>
-        <v>39356</v>
+        <f>EOMONTH(A95,1)</f>
+        <v>39386</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5128,8 +5120,8 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <f t="shared" si="1"/>
-        <v>39387</v>
+        <f>EOMONTH(A96,1)</f>
+        <v>39416</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13">
@@ -5149,8 +5141,8 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <f t="shared" si="1"/>
-        <v>39417</v>
+        <f>EOMONTH(A97,1)</f>
+        <v>39447</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>67</v>
@@ -5192,8 +5184,8 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <f>EDATE(A98,1)</f>
-        <v>39448</v>
+        <f>EOMONTH(A98,1)</f>
+        <v>39478</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -5213,8 +5205,8 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <f t="shared" si="1"/>
-        <v>39479</v>
+        <f>EOMONTH(A100,1)</f>
+        <v>39507</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5234,8 +5226,8 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <f t="shared" si="1"/>
-        <v>39508</v>
+        <f>EOMONTH(A101,1)</f>
+        <v>39538</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13">
@@ -5255,8 +5247,8 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <f t="shared" si="1"/>
-        <v>39539</v>
+        <f>EOMONTH(A102,1)</f>
+        <v>39568</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
@@ -5276,8 +5268,8 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <f t="shared" si="1"/>
-        <v>39569</v>
+        <f>EOMONTH(A103,1)</f>
+        <v>39599</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
@@ -5297,8 +5289,8 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <f t="shared" si="1"/>
-        <v>39600</v>
+        <f>EOMONTH(A104,1)</f>
+        <v>39629</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>71</v>
@@ -5322,8 +5314,8 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <f t="shared" si="1"/>
-        <v>39630</v>
+        <f>EOMONTH(A105,1)</f>
+        <v>39660</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -5343,8 +5335,8 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <f t="shared" si="1"/>
-        <v>39661</v>
+        <f>EOMONTH(A106,1)</f>
+        <v>39691</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13">
@@ -5364,8 +5356,8 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <f t="shared" si="1"/>
-        <v>39692</v>
+        <f>EOMONTH(A107,1)</f>
+        <v>39721</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5385,8 +5377,8 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <f t="shared" si="1"/>
-        <v>39722</v>
+        <f>EOMONTH(A108,1)</f>
+        <v>39752</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -5406,8 +5398,8 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <f t="shared" si="1"/>
-        <v>39753</v>
+        <f>EOMONTH(A109,1)</f>
+        <v>39782</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13">
@@ -5427,8 +5419,8 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <f t="shared" si="1"/>
-        <v>39783</v>
+        <f>EOMONTH(A110,1)</f>
+        <v>39813</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>67</v>
@@ -5470,8 +5462,8 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <f>EDATE(A111,1)</f>
-        <v>39814</v>
+        <f>EOMONTH(A111,1)</f>
+        <v>39844</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5491,8 +5483,8 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <f t="shared" si="1"/>
-        <v>39845</v>
+        <f>EOMONTH(A113,1)</f>
+        <v>39872</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -5512,8 +5504,8 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <f t="shared" si="1"/>
-        <v>39873</v>
+        <f>EOMONTH(A114,1)</f>
+        <v>39903</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -5533,8 +5525,8 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <f t="shared" si="1"/>
-        <v>39904</v>
+        <f>EOMONTH(A115,1)</f>
+        <v>39933</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -5554,8 +5546,8 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <f t="shared" si="1"/>
-        <v>39934</v>
+        <f>EOMONTH(A116,1)</f>
+        <v>39964</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -5575,8 +5567,8 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <f t="shared" si="1"/>
-        <v>39965</v>
+        <f>EOMONTH(A117,1)</f>
+        <v>39994</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -5596,8 +5588,8 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <f t="shared" si="1"/>
-        <v>39995</v>
+        <f>EOMONTH(A118,1)</f>
+        <v>40025</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13">
@@ -5617,8 +5609,8 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <f t="shared" si="1"/>
-        <v>40026</v>
+        <f>EOMONTH(A119,1)</f>
+        <v>40056</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5638,8 +5630,8 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <f t="shared" si="1"/>
-        <v>40057</v>
+        <f>EOMONTH(A120,1)</f>
+        <v>40086</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -5659,8 +5651,8 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <f t="shared" si="1"/>
-        <v>40087</v>
+        <f>EOMONTH(A121,1)</f>
+        <v>40117</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -5680,8 +5672,8 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <f t="shared" si="1"/>
-        <v>40118</v>
+        <f>EOMONTH(A122,1)</f>
+        <v>40147</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -5701,8 +5693,8 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <f t="shared" si="1"/>
-        <v>40148</v>
+        <f>EOMONTH(A123,1)</f>
+        <v>40178</v>
       </c>
       <c r="B124" s="20" t="s">
         <v>67</v>
@@ -5744,8 +5736,8 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <f>EDATE(A124,1)</f>
-        <v>40179</v>
+        <f>EOMONTH(A124,1)</f>
+        <v>40209</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13">
@@ -5765,8 +5757,8 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <f t="shared" si="1"/>
-        <v>40210</v>
+        <f>EOMONTH(A126,1)</f>
+        <v>40237</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -5786,8 +5778,8 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <f t="shared" si="1"/>
-        <v>40238</v>
+        <f>EOMONTH(A127,1)</f>
+        <v>40268</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -5807,8 +5799,8 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <f t="shared" si="1"/>
-        <v>40269</v>
+        <f>EOMONTH(A128,1)</f>
+        <v>40298</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -5828,8 +5820,8 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <f t="shared" si="1"/>
-        <v>40299</v>
+        <f>EOMONTH(A129,1)</f>
+        <v>40329</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -5849,8 +5841,8 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <f t="shared" si="1"/>
-        <v>40330</v>
+        <f>EOMONTH(A130,1)</f>
+        <v>40359</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13">
@@ -5870,8 +5862,8 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <f t="shared" si="1"/>
-        <v>40360</v>
+        <f>EOMONTH(A131,1)</f>
+        <v>40390</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -5891,8 +5883,8 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <f t="shared" si="1"/>
-        <v>40391</v>
+        <f>EOMONTH(A132,1)</f>
+        <v>40421</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -5912,8 +5904,8 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <f t="shared" si="1"/>
-        <v>40422</v>
+        <f>EOMONTH(A133,1)</f>
+        <v>40451</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -5933,8 +5925,8 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <f t="shared" si="1"/>
-        <v>40452</v>
+        <f>EOMONTH(A134,1)</f>
+        <v>40482</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -5954,8 +5946,8 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <f t="shared" si="1"/>
-        <v>40483</v>
+        <f>EOMONTH(A135,1)</f>
+        <v>40512</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
@@ -5975,8 +5967,8 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <f t="shared" si="1"/>
-        <v>40513</v>
+        <f>EOMONTH(A136,1)</f>
+        <v>40543</v>
       </c>
       <c r="B137" s="20" t="s">
         <v>67</v>
@@ -6018,8 +6010,8 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <f>EDATE(A137,1)</f>
-        <v>40544</v>
+        <f>EOMONTH(A137,1)</f>
+        <v>40574</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -6039,8 +6031,8 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <f t="shared" si="1"/>
-        <v>40575</v>
+        <f>EOMONTH(A139,1)</f>
+        <v>40602</v>
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="13">
@@ -6060,8 +6052,8 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <f t="shared" si="1"/>
-        <v>40603</v>
+        <f>EOMONTH(A140,1)</f>
+        <v>40633</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -6081,8 +6073,8 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <f t="shared" si="1"/>
-        <v>40634</v>
+        <f>EOMONTH(A141,1)</f>
+        <v>40663</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6102,8 +6094,8 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <f t="shared" si="1"/>
-        <v>40664</v>
+        <f>EOMONTH(A142,1)</f>
+        <v>40694</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -6123,8 +6115,8 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <f t="shared" si="1"/>
-        <v>40695</v>
+        <f>EOMONTH(A143,1)</f>
+        <v>40724</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13">
@@ -6144,8 +6136,8 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <f t="shared" si="1"/>
-        <v>40725</v>
+        <f>EOMONTH(A144,1)</f>
+        <v>40755</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6165,8 +6157,8 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <f t="shared" si="1"/>
-        <v>40756</v>
+        <f>EOMONTH(A145,1)</f>
+        <v>40786</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -6186,8 +6178,8 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <f t="shared" si="1"/>
-        <v>40787</v>
+        <f>EOMONTH(A146,1)</f>
+        <v>40816</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -6207,8 +6199,8 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <f t="shared" si="1"/>
-        <v>40817</v>
+        <f>EOMONTH(A147,1)</f>
+        <v>40847</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
@@ -6228,8 +6220,8 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <f t="shared" si="1"/>
-        <v>40848</v>
+        <f>EOMONTH(A148,1)</f>
+        <v>40877</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -6249,8 +6241,8 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <f t="shared" si="1"/>
-        <v>40878</v>
+        <f>EOMONTH(A149,1)</f>
+        <v>40908</v>
       </c>
       <c r="B150" s="20" t="s">
         <v>67</v>
@@ -6292,8 +6284,8 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <f>EDATE(A150,1)</f>
-        <v>40909</v>
+        <f>EOMONTH(A150,1)</f>
+        <v>40939</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6313,8 +6305,8 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <f t="shared" ref="A153:A221" si="2">EDATE(A152,1)</f>
-        <v>40940</v>
+        <f>EOMONTH(A152,1)</f>
+        <v>40968</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -6334,8 +6326,8 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <f t="shared" si="2"/>
-        <v>40969</v>
+        <f>EOMONTH(A153,1)</f>
+        <v>40999</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
@@ -6355,8 +6347,8 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <f t="shared" si="2"/>
-        <v>41000</v>
+        <f>EOMONTH(A154,1)</f>
+        <v>41029</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13">
@@ -6376,8 +6368,8 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <f t="shared" si="2"/>
-        <v>41030</v>
+        <f>EOMONTH(A155,1)</f>
+        <v>41060</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -6397,8 +6389,8 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <f t="shared" si="2"/>
-        <v>41061</v>
+        <f>EOMONTH(A156,1)</f>
+        <v>41090</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -6418,8 +6410,8 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <f t="shared" si="2"/>
-        <v>41091</v>
+        <f>EOMONTH(A157,1)</f>
+        <v>41121</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
@@ -6439,8 +6431,8 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <f t="shared" si="2"/>
-        <v>41122</v>
+        <f>EOMONTH(A158,1)</f>
+        <v>41152</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -6460,8 +6452,8 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <f t="shared" si="2"/>
-        <v>41153</v>
+        <f>EOMONTH(A159,1)</f>
+        <v>41182</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -6481,8 +6473,8 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <f t="shared" si="2"/>
-        <v>41183</v>
+        <f>EOMONTH(A160,1)</f>
+        <v>41213</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13">
@@ -6502,8 +6494,8 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <f t="shared" si="2"/>
-        <v>41214</v>
+        <f>EOMONTH(A161,1)</f>
+        <v>41243</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -6523,8 +6515,8 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <f t="shared" si="2"/>
-        <v>41244</v>
+        <f>EOMONTH(A162,1)</f>
+        <v>41274</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>67</v>
@@ -6566,8 +6558,8 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <f>EDATE(A163,1)</f>
-        <v>41275</v>
+        <f>EOMONTH(A163,1)</f>
+        <v>41305</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -6587,8 +6579,8 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <f t="shared" si="2"/>
-        <v>41306</v>
+        <f>EOMONTH(A165,1)</f>
+        <v>41333</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -6608,8 +6600,8 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <f t="shared" si="2"/>
-        <v>41334</v>
+        <f>EOMONTH(A166,1)</f>
+        <v>41364</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -6629,8 +6621,8 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <f t="shared" si="2"/>
-        <v>41365</v>
+        <f>EOMONTH(A167,1)</f>
+        <v>41394</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13">
@@ -6650,8 +6642,8 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <f t="shared" si="2"/>
-        <v>41395</v>
+        <f>EOMONTH(A168,1)</f>
+        <v>41425</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -6671,8 +6663,8 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <f t="shared" si="2"/>
-        <v>41426</v>
+        <f>EOMONTH(A169,1)</f>
+        <v>41455</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -6692,8 +6684,8 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <f t="shared" si="2"/>
-        <v>41456</v>
+        <f>EOMONTH(A170,1)</f>
+        <v>41486</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13">
@@ -6713,8 +6705,8 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <f t="shared" si="2"/>
-        <v>41487</v>
+        <f>EOMONTH(A171,1)</f>
+        <v>41517</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13">
@@ -6734,8 +6726,8 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <f t="shared" si="2"/>
-        <v>41518</v>
+        <f>EOMONTH(A172,1)</f>
+        <v>41547</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -6755,8 +6747,8 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <f t="shared" si="2"/>
-        <v>41548</v>
+        <f>EOMONTH(A173,1)</f>
+        <v>41578</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13">
@@ -6776,8 +6768,8 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <f t="shared" si="2"/>
-        <v>41579</v>
+        <f>EOMONTH(A174,1)</f>
+        <v>41608</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -6797,8 +6789,8 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <f t="shared" si="2"/>
-        <v>41609</v>
+        <f>EOMONTH(A175,1)</f>
+        <v>41639</v>
       </c>
       <c r="B176" s="20" t="s">
         <v>67</v>
@@ -6840,8 +6832,8 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <f>EDATE(A176,1)</f>
-        <v>41640</v>
+        <f>EOMONTH(A176,1)</f>
+        <v>41670</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13">
@@ -6861,8 +6853,8 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <f t="shared" si="2"/>
-        <v>41671</v>
+        <f>EOMONTH(A178,1)</f>
+        <v>41698</v>
       </c>
       <c r="B179" s="20" t="s">
         <v>72</v>
@@ -6886,8 +6878,8 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <f t="shared" si="2"/>
-        <v>41699</v>
+        <f>EOMONTH(A179,1)</f>
+        <v>41729</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13">
@@ -6907,8 +6899,8 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <f t="shared" si="2"/>
-        <v>41730</v>
+        <f>EOMONTH(A180,1)</f>
+        <v>41759</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13">
@@ -6928,8 +6920,8 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <f t="shared" si="2"/>
-        <v>41760</v>
+        <f>EOMONTH(A181,1)</f>
+        <v>41790</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
@@ -6949,8 +6941,8 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <f t="shared" si="2"/>
-        <v>41791</v>
+        <f>EOMONTH(A182,1)</f>
+        <v>41820</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13">
@@ -6970,8 +6962,8 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <f t="shared" si="2"/>
-        <v>41821</v>
+        <f>EOMONTH(A183,1)</f>
+        <v>41851</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
@@ -6991,8 +6983,8 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <f t="shared" si="2"/>
-        <v>41852</v>
+        <f>EOMONTH(A184,1)</f>
+        <v>41882</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13">
@@ -7012,8 +7004,8 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <f t="shared" si="2"/>
-        <v>41883</v>
+        <f>EOMONTH(A185,1)</f>
+        <v>41912</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13">
@@ -7033,8 +7025,8 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <f t="shared" si="2"/>
-        <v>41913</v>
+        <f>EOMONTH(A186,1)</f>
+        <v>41943</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13">
@@ -7054,8 +7046,8 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <f t="shared" si="2"/>
-        <v>41944</v>
+        <f>EOMONTH(A187,1)</f>
+        <v>41973</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13">
@@ -7075,8 +7067,8 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <f t="shared" si="2"/>
-        <v>41974</v>
+        <f>EOMONTH(A188,1)</f>
+        <v>42004</v>
       </c>
       <c r="B189" s="20" t="s">
         <v>67</v>
@@ -7118,8 +7110,8 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <f>EDATE(A189,1)</f>
-        <v>42005</v>
+        <f>EOMONTH(A189,1)</f>
+        <v>42035</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13">
@@ -7139,8 +7131,8 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <f t="shared" si="2"/>
-        <v>42036</v>
+        <f>EOMONTH(A191,1)</f>
+        <v>42063</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13">
@@ -7160,8 +7152,8 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <f t="shared" si="2"/>
-        <v>42064</v>
+        <f>EOMONTH(A192,1)</f>
+        <v>42094</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7181,8 +7173,8 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <f t="shared" si="2"/>
-        <v>42095</v>
+        <f>EOMONTH(A193,1)</f>
+        <v>42124</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13">
@@ -7202,8 +7194,8 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
-        <f t="shared" si="2"/>
-        <v>42125</v>
+        <f>EOMONTH(A194,1)</f>
+        <v>42155</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
@@ -7223,8 +7215,8 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <f t="shared" si="2"/>
-        <v>42156</v>
+        <f>EOMONTH(A195,1)</f>
+        <v>42185</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13">
@@ -7244,8 +7236,8 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <f t="shared" si="2"/>
-        <v>42186</v>
+        <f>EOMONTH(A196,1)</f>
+        <v>42216</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7265,8 +7257,8 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <f t="shared" si="2"/>
-        <v>42217</v>
+        <f>EOMONTH(A197,1)</f>
+        <v>42247</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13">
@@ -7286,8 +7278,8 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <f t="shared" si="2"/>
-        <v>42248</v>
+        <f>EOMONTH(A198,1)</f>
+        <v>42277</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13">
@@ -7307,8 +7299,8 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <f t="shared" si="2"/>
-        <v>42278</v>
+        <f>EOMONTH(A199,1)</f>
+        <v>42308</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7328,8 +7320,8 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <f t="shared" si="2"/>
-        <v>42309</v>
+        <f>EOMONTH(A200,1)</f>
+        <v>42338</v>
       </c>
       <c r="B201" s="20" t="s">
         <v>73</v>
@@ -7353,8 +7345,8 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <f t="shared" si="2"/>
-        <v>42339</v>
+        <f>EOMONTH(A201,1)</f>
+        <v>42369</v>
       </c>
       <c r="B202" s="20" t="s">
         <v>67</v>
@@ -7396,8 +7388,8 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <f>EDATE(A202,1)</f>
-        <v>42370</v>
+        <f>EOMONTH(A202,1)</f>
+        <v>42400</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13">
@@ -7417,8 +7409,8 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <f t="shared" si="2"/>
-        <v>42401</v>
+        <f>EOMONTH(A204,1)</f>
+        <v>42429</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13">
@@ -7438,8 +7430,8 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <f t="shared" si="2"/>
-        <v>42430</v>
+        <f>EOMONTH(A205,1)</f>
+        <v>42460</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13">
@@ -7459,8 +7451,8 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <f t="shared" si="2"/>
-        <v>42461</v>
+        <f>EOMONTH(A206,1)</f>
+        <v>42490</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13">
@@ -7480,8 +7472,8 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <f t="shared" si="2"/>
-        <v>42491</v>
+        <f>EOMONTH(A207,1)</f>
+        <v>42521</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -7501,8 +7493,8 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <f t="shared" si="2"/>
-        <v>42522</v>
+        <f>EOMONTH(A208,1)</f>
+        <v>42551</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -7522,8 +7514,8 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <f t="shared" si="2"/>
-        <v>42552</v>
+        <f>EOMONTH(A209,1)</f>
+        <v>42582</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13">
@@ -7543,8 +7535,8 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <f t="shared" si="2"/>
-        <v>42583</v>
+        <f>EOMONTH(A210,1)</f>
+        <v>42613</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -7564,8 +7556,8 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <f t="shared" si="2"/>
-        <v>42614</v>
+        <f>EOMONTH(A211,1)</f>
+        <v>42643</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13">
@@ -7585,8 +7577,8 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <f t="shared" si="2"/>
-        <v>42644</v>
+        <f>EOMONTH(A212,1)</f>
+        <v>42674</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13">
@@ -7606,8 +7598,8 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <f t="shared" si="2"/>
-        <v>42675</v>
+        <f>EOMONTH(A213,1)</f>
+        <v>42704</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13">
@@ -7627,8 +7619,8 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <f t="shared" si="2"/>
-        <v>42705</v>
+        <f>EOMONTH(A214,1)</f>
+        <v>42735</v>
       </c>
       <c r="B215" s="20" t="s">
         <v>67</v>
@@ -7670,8 +7662,8 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <f>EDATE(A215,1)</f>
-        <v>42736</v>
+        <f>EOMONTH(A215,1)</f>
+        <v>42766</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13">
@@ -7691,8 +7683,8 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <f t="shared" si="2"/>
-        <v>42767</v>
+        <f>EOMONTH(A217,1)</f>
+        <v>42794</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13">
@@ -7712,8 +7704,8 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
-        <f t="shared" si="2"/>
-        <v>42795</v>
+        <f>EOMONTH(A218,1)</f>
+        <v>42825</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -7733,8 +7725,8 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
-        <f t="shared" si="2"/>
-        <v>42826</v>
+        <f>EOMONTH(A219,1)</f>
+        <v>42855</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13">
@@ -7754,8 +7746,8 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <f t="shared" si="2"/>
-        <v>42856</v>
+        <f>EOMONTH(A220,1)</f>
+        <v>42886</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -7775,8 +7767,8 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <f t="shared" ref="A222:A280" si="3">EDATE(A221,1)</f>
-        <v>42887</v>
+        <f>EOMONTH(A221,1)</f>
+        <v>42916</v>
       </c>
       <c r="B222" s="20" t="s">
         <v>74</v>
@@ -7800,8 +7792,8 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
-        <f t="shared" si="3"/>
-        <v>42917</v>
+        <f>EOMONTH(A222,1)</f>
+        <v>42947</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -7821,8 +7813,8 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
-        <f t="shared" si="3"/>
-        <v>42948</v>
+        <f>EOMONTH(A223,1)</f>
+        <v>42978</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13">
@@ -7842,8 +7834,8 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
-        <f t="shared" si="3"/>
-        <v>42979</v>
+        <f>EOMONTH(A224,1)</f>
+        <v>43008</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13">
@@ -7863,8 +7855,8 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
-        <f t="shared" si="3"/>
-        <v>43009</v>
+        <f>EOMONTH(A225,1)</f>
+        <v>43039</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13">
@@ -7884,8 +7876,8 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
-        <f t="shared" si="3"/>
-        <v>43040</v>
+        <f>EOMONTH(A226,1)</f>
+        <v>43069</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -7905,8 +7897,8 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
-        <f t="shared" si="3"/>
-        <v>43070</v>
+        <f>EOMONTH(A227,1)</f>
+        <v>43100</v>
       </c>
       <c r="B228" s="20" t="s">
         <v>67</v>
@@ -7948,8 +7940,8 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <f>EDATE(A228,1)</f>
-        <v>43101</v>
+        <f>EOMONTH(A228,1)</f>
+        <v>43131</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13">
@@ -7969,8 +7961,8 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
-        <f t="shared" si="3"/>
-        <v>43132</v>
+        <f>EOMONTH(A230,1)</f>
+        <v>43159</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13">
@@ -7990,8 +7982,8 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
-        <f t="shared" si="3"/>
-        <v>43160</v>
+        <f>EOMONTH(A231,1)</f>
+        <v>43190</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13">
@@ -8011,8 +8003,8 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
-        <f t="shared" si="3"/>
-        <v>43191</v>
+        <f>EOMONTH(A232,1)</f>
+        <v>43220</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13">
@@ -8032,8 +8024,8 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
-        <f t="shared" si="3"/>
-        <v>43221</v>
+        <f>EOMONTH(A233,1)</f>
+        <v>43251</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8053,8 +8045,8 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
-        <f t="shared" si="3"/>
-        <v>43252</v>
+        <f>EOMONTH(A234,1)</f>
+        <v>43281</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13">
@@ -8074,8 +8066,8 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
-        <f t="shared" si="3"/>
-        <v>43282</v>
+        <f>EOMONTH(A235,1)</f>
+        <v>43312</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13">
@@ -8095,8 +8087,8 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
-        <f t="shared" si="3"/>
-        <v>43313</v>
+        <f>EOMONTH(A236,1)</f>
+        <v>43343</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="13">
@@ -8116,8 +8108,8 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
-        <f t="shared" si="3"/>
-        <v>43344</v>
+        <f>EOMONTH(A237,1)</f>
+        <v>43373</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13">
@@ -8137,8 +8129,8 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
-        <f t="shared" si="3"/>
-        <v>43374</v>
+        <f>EOMONTH(A238,1)</f>
+        <v>43404</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13">
@@ -8158,8 +8150,8 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
-        <f t="shared" si="3"/>
-        <v>43405</v>
+        <f>EOMONTH(A239,1)</f>
+        <v>43434</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="13">
@@ -8179,8 +8171,8 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
-        <f t="shared" si="3"/>
-        <v>43435</v>
+        <f>EOMONTH(A240,1)</f>
+        <v>43465</v>
       </c>
       <c r="B241" s="20" t="s">
         <v>67</v>
@@ -8223,8 +8215,8 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
-        <f>EDATE(A241,1)</f>
-        <v>43466</v>
+        <f>EOMONTH(A241,1)</f>
+        <v>43496</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13">
@@ -8244,8 +8236,8 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
-        <f t="shared" si="3"/>
-        <v>43497</v>
+        <f>EOMONTH(A243,1)</f>
+        <v>43524</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8265,8 +8257,8 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
-        <f t="shared" si="3"/>
-        <v>43525</v>
+        <f>EOMONTH(A244,1)</f>
+        <v>43555</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13">
@@ -8286,8 +8278,8 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
-        <f t="shared" si="3"/>
-        <v>43556</v>
+        <f>EOMONTH(A245,1)</f>
+        <v>43585</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13">
@@ -8307,8 +8299,8 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
-        <f t="shared" si="3"/>
-        <v>43586</v>
+        <f>EOMONTH(A246,1)</f>
+        <v>43616</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13">
@@ -8328,8 +8320,8 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
-        <f t="shared" si="3"/>
-        <v>43617</v>
+        <f>EOMONTH(A247,1)</f>
+        <v>43646</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13">
@@ -8349,8 +8341,8 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
-        <f t="shared" si="3"/>
-        <v>43647</v>
+        <f>EOMONTH(A248,1)</f>
+        <v>43677</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8370,8 +8362,8 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
-        <f t="shared" si="3"/>
-        <v>43678</v>
+        <f>EOMONTH(A249,1)</f>
+        <v>43708</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13">
@@ -8391,8 +8383,8 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
-        <f t="shared" si="3"/>
-        <v>43709</v>
+        <f>EOMONTH(A250,1)</f>
+        <v>43738</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13">
@@ -8412,8 +8404,8 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
-        <f t="shared" si="3"/>
-        <v>43739</v>
+        <f>EOMONTH(A251,1)</f>
+        <v>43769</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13">
@@ -8433,8 +8425,8 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
-        <f t="shared" si="3"/>
-        <v>43770</v>
+        <f>EOMONTH(A252,1)</f>
+        <v>43799</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13">
@@ -8454,8 +8446,8 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
-        <f t="shared" si="3"/>
-        <v>43800</v>
+        <f>EOMONTH(A253,1)</f>
+        <v>43830</v>
       </c>
       <c r="B254" s="20" t="s">
         <v>67</v>
@@ -8497,8 +8489,8 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
-        <f>EDATE(A254,1)</f>
-        <v>43831</v>
+        <f>EOMONTH(A254,1)</f>
+        <v>43861</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13">
@@ -8518,8 +8510,8 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
-        <f t="shared" si="3"/>
-        <v>43862</v>
+        <f>EOMONTH(A256,1)</f>
+        <v>43890</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13">
@@ -8539,8 +8531,8 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
-        <f t="shared" si="3"/>
-        <v>43891</v>
+        <f>EOMONTH(A257,1)</f>
+        <v>43921</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13">
@@ -8560,8 +8552,8 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
-        <f t="shared" si="3"/>
-        <v>43922</v>
+        <f>EOMONTH(A258,1)</f>
+        <v>43951</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -8581,8 +8573,8 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
-        <f t="shared" si="3"/>
-        <v>43952</v>
+        <f>EOMONTH(A259,1)</f>
+        <v>43982</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13">
@@ -8602,8 +8594,8 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
-        <f t="shared" si="3"/>
-        <v>43983</v>
+        <f>EOMONTH(A260,1)</f>
+        <v>44012</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13">
@@ -8623,8 +8615,8 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
-        <f t="shared" si="3"/>
-        <v>44013</v>
+        <f>EOMONTH(A261,1)</f>
+        <v>44043</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13">
@@ -8644,8 +8636,8 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
-        <f t="shared" si="3"/>
-        <v>44044</v>
+        <f>EOMONTH(A262,1)</f>
+        <v>44074</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -8665,8 +8657,8 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
-        <f t="shared" si="3"/>
-        <v>44075</v>
+        <f>EOMONTH(A263,1)</f>
+        <v>44104</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13">
@@ -8686,8 +8678,8 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
-        <f t="shared" si="3"/>
-        <v>44105</v>
+        <f>EOMONTH(A264,1)</f>
+        <v>44135</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13">
@@ -8707,8 +8699,8 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
-        <f t="shared" si="3"/>
-        <v>44136</v>
+        <f>EOMONTH(A265,1)</f>
+        <v>44165</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13">
@@ -8728,8 +8720,8 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
-        <f t="shared" si="3"/>
-        <v>44166</v>
+        <f>EOMONTH(A266,1)</f>
+        <v>44196</v>
       </c>
       <c r="B267" s="20" t="s">
         <v>67</v>
@@ -8771,8 +8763,8 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
-        <f>EDATE(A267,1)</f>
-        <v>44197</v>
+        <f>EOMONTH(A267,1)</f>
+        <v>44227</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13">
@@ -8792,8 +8784,8 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
-        <f t="shared" si="3"/>
-        <v>44228</v>
+        <f>EOMONTH(A269,1)</f>
+        <v>44255</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -8813,8 +8805,8 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
-        <f t="shared" si="3"/>
-        <v>44256</v>
+        <f>EOMONTH(A270,1)</f>
+        <v>44286</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13">
@@ -8834,8 +8826,8 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
-        <f t="shared" si="3"/>
-        <v>44287</v>
+        <f>EOMONTH(A271,1)</f>
+        <v>44316</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13">
@@ -8855,8 +8847,8 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
-        <f t="shared" si="3"/>
-        <v>44317</v>
+        <f>EOMONTH(A272,1)</f>
+        <v>44347</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -8876,8 +8868,8 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
-        <f t="shared" si="3"/>
-        <v>44348</v>
+        <f>EOMONTH(A273,1)</f>
+        <v>44377</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13">
@@ -8897,8 +8889,8 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
-        <f t="shared" si="3"/>
-        <v>44378</v>
+        <f>EOMONTH(A274,1)</f>
+        <v>44408</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13">
@@ -8918,8 +8910,8 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
-        <f t="shared" si="3"/>
-        <v>44409</v>
+        <f>EOMONTH(A275,1)</f>
+        <v>44439</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -8939,8 +8931,8 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
-        <f t="shared" si="3"/>
-        <v>44440</v>
+        <f>EOMONTH(A276,1)</f>
+        <v>44469</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13">
@@ -8960,8 +8952,8 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
-        <f t="shared" si="3"/>
-        <v>44470</v>
+        <f>EOMONTH(A277,1)</f>
+        <v>44500</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13">
@@ -8981,8 +8973,8 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
-        <f t="shared" si="3"/>
-        <v>44501</v>
+        <f>EOMONTH(A278,1)</f>
+        <v>44530</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9002,8 +8994,8 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
-        <f t="shared" si="3"/>
-        <v>44531</v>
+        <f>EOMONTH(A279,1)</f>
+        <v>44561</v>
       </c>
       <c r="B280" s="20" t="s">
         <v>67</v>
@@ -9045,8 +9037,8 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
-        <f>EDATE(A280,1)</f>
-        <v>44562</v>
+        <f>EOMONTH(A280,1)</f>
+        <v>44592</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13">
@@ -9066,8 +9058,8 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
-        <f>EDATE(A282,1)</f>
-        <v>44593</v>
+        <f>EOMONTH(A282,1)</f>
+        <v>44620</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9087,8 +9079,8 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
-        <f t="shared" ref="A284:A292" si="4">EDATE(A283,1)</f>
-        <v>44621</v>
+        <f>EOMONTH(A283,1)</f>
+        <v>44651</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13">
@@ -9108,8 +9100,8 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
-        <f t="shared" si="4"/>
-        <v>44652</v>
+        <f>EOMONTH(A284,1)</f>
+        <v>44681</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9129,8 +9121,8 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
-        <f t="shared" si="4"/>
-        <v>44682</v>
+        <f>EOMONTH(A285,1)</f>
+        <v>44712</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13">
@@ -9150,8 +9142,8 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
-        <f t="shared" si="4"/>
-        <v>44713</v>
+        <f>EOMONTH(A286,1)</f>
+        <v>44742</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13">
@@ -9171,8 +9163,8 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
-        <f t="shared" si="4"/>
-        <v>44743</v>
+        <f>EOMONTH(A287,1)</f>
+        <v>44773</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13">
@@ -9192,8 +9184,8 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
-        <f t="shared" si="4"/>
-        <v>44774</v>
+        <f>EOMONTH(A288,1)</f>
+        <v>44804</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13">
@@ -9213,8 +9205,8 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
-        <f t="shared" si="4"/>
-        <v>44805</v>
+        <f>EOMONTH(A289,1)</f>
+        <v>44834</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13">
@@ -9234,8 +9226,8 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
-        <f t="shared" si="4"/>
-        <v>44835</v>
+        <f>EOMONTH(A290,1)</f>
+        <v>44865</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13">
@@ -9255,8 +9247,8 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
-        <f t="shared" si="4"/>
-        <v>44866</v>
+        <f>EOMONTH(A291,1)</f>
+        <v>44895</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13">
@@ -9276,7 +9268,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
-        <v>44908</v>
+        <v>44907</v>
       </c>
       <c r="B293" s="20" t="s">
         <v>67</v>
@@ -9301,7 +9293,7 @@
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="48"/>
       <c r="B294" s="49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C294" s="50"/>
       <c r="D294" s="51"/>
@@ -9318,13 +9310,13 @@
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
       <c r="D295" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
       <c r="G295" s="9"/>
       <c r="H295" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
@@ -9522,8 +9514,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
